--- a/Application/Input/parameter_input_rmse_example.xlsx
+++ b/Application/Input/parameter_input_rmse_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/Check reproducibility/ActiveSampling/Application/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4F2397-8A5B-DF4A-965B-CF6FB1141C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145722E0-E32D-9646-BA37-39727E2FD6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
